--- a/Design Document/BOM.xlsx
+++ b/Design Document/BOM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr2 xr6">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16868"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="12AC8231632716197B304D20AEE6F1444B03A2E9" xr6:coauthVersionLast="6" xr6:coauthVersionMax="6"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="11940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="10690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
   <si>
     <t>Security module</t>
   </si>
@@ -51,15 +52,9 @@
     <t>Output typ.</t>
   </si>
   <si>
-    <t>http://goo.gl/jD0hcd</t>
-  </si>
-  <si>
     <t>Reed sensor</t>
   </si>
   <si>
-    <t>Standex-Meder Electronics MK24-B-3</t>
-  </si>
-  <si>
     <t>upto 30V</t>
   </si>
   <si>
@@ -165,24 +160,9 @@
     <t>Color LED</t>
   </si>
   <si>
-    <t>http://goo.gl/X9cfck</t>
-  </si>
-  <si>
-    <t>4 pin</t>
-  </si>
-  <si>
-    <t>SunLED XZMDKCBDDG45S-9</t>
-  </si>
-  <si>
     <t>5V</t>
   </si>
   <si>
-    <t>4-PIN</t>
-  </si>
-  <si>
-    <t>http://goo.gl/WvCVfJ</t>
-  </si>
-  <si>
     <t>SMD speaker</t>
   </si>
   <si>
@@ -222,9 +202,6 @@
     <t>TPS61251</t>
   </si>
   <si>
-    <t>Logic converter</t>
-  </si>
-  <si>
     <t>http://goo.gl/phzwz2</t>
   </si>
   <si>
@@ -241,12 +218,93 @@
   </si>
   <si>
     <t>http://goo.gl/fwaayF</t>
+  </si>
+  <si>
+    <t>http://goo.gl/wsjplj</t>
+  </si>
+  <si>
+    <t>http://goo.gl/VSFWke</t>
+  </si>
+  <si>
+    <t>12 bit DAC, SPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Texas Instruments DAC7513N/3K</t>
+  </si>
+  <si>
+    <t>SOT-23 8</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>I2C MUX</t>
+  </si>
+  <si>
+    <t>http://goo.gl/fW56mX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-TSSOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas Instruments TCA9545APWR </t>
+  </si>
+  <si>
+    <t>Standex-Meder Electronics MK24-A-3</t>
+  </si>
+  <si>
+    <t>http://goo.gl/z4iFxb</t>
+  </si>
+  <si>
+    <t>TXB0104</t>
+  </si>
+  <si>
+    <t>http://goo.gl/97zQ0e</t>
+  </si>
+  <si>
+    <t>Level shifter, 4 pin</t>
+  </si>
+  <si>
+    <t>http://goo.gl/ystHMN</t>
+  </si>
+  <si>
+    <t>OSRAM LTRBGFSF-ABCB-QKYO-Z</t>
+  </si>
+  <si>
+    <t>6 pin</t>
+  </si>
+  <si>
+    <t>6-PIN</t>
+  </si>
+  <si>
+    <t>I2C GPIO Extender</t>
+  </si>
+  <si>
+    <t>http://goo.gl/QkhNkv</t>
+  </si>
+  <si>
+    <t>TCA9534PWR</t>
+  </si>
+  <si>
+    <t>TPS22918</t>
+  </si>
+  <si>
+    <t>Load switch</t>
+  </si>
+  <si>
+    <t>SOT-23-8</t>
+  </si>
+  <si>
+    <t>http://goo.gl/CF87ur</t>
+  </si>
+  <si>
+    <t>5.5V, 2A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -320,12 +378,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent3" xfId="2" builtinId="40"/>
@@ -642,30 +702,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="32.90625" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -673,10 +733,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -688,7 +748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -699,87 +759,87 @@
         <v>16.86</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3">
         <v>4.7</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
+      <c r="E4" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>0.26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3">
         <v>3.84</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -787,10 +847,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2</v>
@@ -802,98 +862,98 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3">
         <v>6.34</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C11" s="3">
         <v>7.37</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="G11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3">
         <v>2.72</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>40</v>
+      <c r="E12" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>0.26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -901,10 +961,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>2</v>
@@ -916,226 +976,348 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3">
         <v>1.53</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="G18" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1.46</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C19" s="3">
         <v>8.18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="C20" s="3">
         <v>1.84</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="C22" s="3">
-        <v>0.26</v>
+        <v>4.5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C33" s="3">
+        <v>2.36</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="B35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1.76</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2.36</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
-    <hyperlink ref="E19" r:id="rId2"/>
-    <hyperlink ref="E20" r:id="rId3"/>
-    <hyperlink ref="E26" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E33" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E29" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E4" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E23" r:id="rId18" xr:uid="{29FAA6F3-6B5B-43A3-BA5B-B985C7C8AE74}"/>
+    <hyperlink ref="E34" r:id="rId19" xr:uid="{28206EF4-0D0F-4DC5-8351-62DD3761C440}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>